--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dkk4-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dkk4-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Dkk4</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Dkk4</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.022063</v>
       </c>
       <c r="I2">
-        <v>0.1295065801058922</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.1295065801058921</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N2">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O2">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P2">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q2">
-        <v>0.09866201838450001</v>
+        <v>0.1217732351916667</v>
       </c>
       <c r="R2">
-        <v>0.591972110307</v>
+        <v>0.73063941115</v>
       </c>
       <c r="S2">
-        <v>0.01760364860660195</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="T2">
-        <v>0.01305941679648818</v>
+        <v>0.155585835247525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.022063</v>
       </c>
       <c r="I3">
-        <v>0.1295065801058922</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.1295065801058921</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N3">
         <v>60.953383</v>
       </c>
       <c r="O3">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P3">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q3">
-        <v>0.1494238321254445</v>
+        <v>0.1494238321254444</v>
       </c>
       <c r="R3">
         <v>1.344814489129</v>
       </c>
       <c r="S3">
-        <v>0.02666076244190688</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="T3">
-        <v>0.02966777086573204</v>
+        <v>0.2863712008291233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.022063</v>
       </c>
       <c r="I4">
-        <v>0.1295065801058922</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.1295065801058921</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N4">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O4">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P4">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q4">
-        <v>0.133984715912</v>
+        <v>0.07652250757766665</v>
       </c>
       <c r="R4">
-        <v>1.205862443208</v>
+        <v>0.6887025681989999</v>
       </c>
       <c r="S4">
-        <v>0.02390605722638227</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="T4">
-        <v>0.0266023685421901</v>
+        <v>0.1466556042216543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -735,10 +735,10 @@
         <v>0.022063</v>
       </c>
       <c r="I5">
-        <v>0.1295065801058922</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.1295065801058921</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N5">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O5">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P5">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q5">
-        <v>0.1220419404686667</v>
+        <v>0.09677418308083333</v>
       </c>
       <c r="R5">
-        <v>0.7322516428119999</v>
+        <v>0.5806450984849999</v>
       </c>
       <c r="S5">
-        <v>0.02177518228854476</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="T5">
-        <v>0.01615410462232044</v>
+        <v>0.1236453320906656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -797,10 +797,10 @@
         <v>0.022063</v>
       </c>
       <c r="I6">
-        <v>0.1295065801058922</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.1295065801058921</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N6">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O6">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P6">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q6">
-        <v>0.07392774433666667</v>
+        <v>0.05371101785122222</v>
       </c>
       <c r="R6">
-        <v>0.66534969903</v>
+        <v>0.483399160661</v>
       </c>
       <c r="S6">
-        <v>0.01319046635058339</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="T6">
-        <v>0.01467818987375019</v>
+        <v>0.1029373190408882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.022063</v>
       </c>
       <c r="I7">
-        <v>0.1295065801058922</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.1295065801058921</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N7">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O7">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P7">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q7">
-        <v>0.1477968108991111</v>
+        <v>0.09642808937988891</v>
       </c>
       <c r="R7">
-        <v>1.330171298092</v>
+        <v>0.867852804419</v>
       </c>
       <c r="S7">
-        <v>0.02637046319187294</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="T7">
-        <v>0.0293447294054112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.049433</v>
-      </c>
-      <c r="H8">
-        <v>0.148299</v>
-      </c>
-      <c r="I8">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="J8">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>13.4154945</v>
-      </c>
-      <c r="N8">
-        <v>26.830989</v>
-      </c>
-      <c r="O8">
-        <v>0.1359286037219744</v>
-      </c>
-      <c r="P8">
-        <v>0.100839793513272</v>
-      </c>
-      <c r="Q8">
-        <v>0.6631681396185001</v>
-      </c>
-      <c r="R8">
-        <v>3.979008837711001</v>
-      </c>
-      <c r="S8">
-        <v>0.1183249551153724</v>
-      </c>
-      <c r="T8">
-        <v>0.08778037671678379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.049433</v>
-      </c>
-      <c r="H9">
-        <v>0.148299</v>
-      </c>
-      <c r="I9">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="J9">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>20.31779433333334</v>
-      </c>
-      <c r="N9">
-        <v>60.953383</v>
-      </c>
-      <c r="O9">
-        <v>0.2058641531581444</v>
-      </c>
-      <c r="P9">
-        <v>0.2290831156337689</v>
-      </c>
-      <c r="Q9">
-        <v>1.004369527279667</v>
-      </c>
-      <c r="R9">
-        <v>9.039325745517001</v>
-      </c>
-      <c r="S9">
-        <v>0.1792033907162375</v>
-      </c>
-      <c r="T9">
-        <v>0.1994153447680369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.049433</v>
-      </c>
-      <c r="H10">
-        <v>0.148299</v>
-      </c>
-      <c r="I10">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="J10">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>18.218472</v>
-      </c>
-      <c r="N10">
-        <v>54.655416</v>
-      </c>
-      <c r="O10">
-        <v>0.1845933790146823</v>
-      </c>
-      <c r="P10">
-        <v>0.2054132579243344</v>
-      </c>
-      <c r="Q10">
-        <v>0.900593726376</v>
-      </c>
-      <c r="R10">
-        <v>8.105343537384</v>
-      </c>
-      <c r="S10">
-        <v>0.1606873217883</v>
-      </c>
-      <c r="T10">
-        <v>0.1788108893821443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.049433</v>
-      </c>
-      <c r="H11">
-        <v>0.148299</v>
-      </c>
-      <c r="I11">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="J11">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>16.594562</v>
-      </c>
-      <c r="N11">
-        <v>33.189124</v>
-      </c>
-      <c r="O11">
-        <v>0.1681395823342728</v>
-      </c>
-      <c r="P11">
-        <v>0.1247357826074312</v>
-      </c>
-      <c r="Q11">
-        <v>0.8203189833460001</v>
-      </c>
-      <c r="R11">
-        <v>4.921913900076</v>
-      </c>
-      <c r="S11">
-        <v>0.1463644000457281</v>
-      </c>
-      <c r="T11">
-        <v>0.1085816779851108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.049433</v>
-      </c>
-      <c r="H12">
-        <v>0.148299</v>
-      </c>
-      <c r="I12">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="J12">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>10.05227</v>
-      </c>
-      <c r="N12">
-        <v>30.15681</v>
-      </c>
-      <c r="O12">
-        <v>0.1018517077649498</v>
-      </c>
-      <c r="P12">
-        <v>0.1133393365939278</v>
-      </c>
-      <c r="Q12">
-        <v>0.4969138629100001</v>
-      </c>
-      <c r="R12">
-        <v>4.47222476619</v>
-      </c>
-      <c r="S12">
-        <v>0.08866124141436642</v>
-      </c>
-      <c r="T12">
-        <v>0.09866114672017764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.049433</v>
-      </c>
-      <c r="H13">
-        <v>0.148299</v>
-      </c>
-      <c r="I13">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="J13">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>20.09656133333333</v>
-      </c>
-      <c r="N13">
-        <v>60.28968399999999</v>
-      </c>
-      <c r="O13">
-        <v>0.2036225740059764</v>
-      </c>
-      <c r="P13">
-        <v>0.2265887137272657</v>
-      </c>
-      <c r="Q13">
-        <v>0.9934333163906666</v>
-      </c>
-      <c r="R13">
-        <v>8.940899847516</v>
-      </c>
-      <c r="S13">
-        <v>0.1772521108141035</v>
-      </c>
-      <c r="T13">
-        <v>0.1972439843218545</v>
+        <v>0.1848047085701436</v>
       </c>
     </row>
   </sheetData>
